--- a/DateBase/orders/Nha Thu_2025-5-31.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-31.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>720_紫珠_undefined_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>025880809515101115200</v>
+        <v>025880809515101115201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-31.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-31.xlsx
@@ -527,7 +527,7 @@
         <v>720_紫珠_undefined_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>025880809515101115201</v>
+        <v>0258808095151011152015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-31.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,9 +530,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>4</v>
+      </c>
+      <c r="C12" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>524_海棠果绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0258808095151011152015</v>
+        <v>02588080951510111520151520151020202015200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-31.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-31.xlsx
@@ -612,6 +612,9 @@
       <c r="C21" t="str">
         <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -673,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02588080951510111520151520151020202015200</v>
+        <v>025880809515101115201515201510202020152020</v>
       </c>
     </row>
   </sheetData>
